--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3097489.02784809</v>
+        <v>3093156.543027399</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10087461.63830379</v>
+        <v>10087461.6383038</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283198</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.47464754185047</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>300.1411575380077</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>39.25266187003844</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.7253909566177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>1.657584653428553</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>227.2091157308878</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.47502458765843</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>14.52687838733164</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5482381185107</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>155.6335398727364</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>72.65793777463499</v>
       </c>
       <c r="Y10" t="n">
-        <v>123.4514883688806</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>130.4114987159134</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710068</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695567</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012194</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8518831494963</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>168.9827806899938</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>40.96105405076426</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>102.9630220374114</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.0585636675447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.262726309339</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>104.4262124629291</v>
       </c>
     </row>
     <row r="32">
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>141.888808295738</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>126.9420388308266</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>13.72582864853726</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,16 +3717,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>38.37250637580677</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>226.342123432859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1668.489050745291</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.526533804879</v>
+        <v>1512.155724216995</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>1153.890025610244</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>768.101773012</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>357.1158682223924</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2070.717079250664</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1697.251320989584</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1697.251320989584</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1686.741202187451</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.474763085466</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2519.297275399636</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2300.662608371699</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2300.662608371699</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2300.662608371699</v>
       </c>
       <c r="W5" t="n">
-        <v>1686.741202187451</v>
+        <v>1947.893953101585</v>
       </c>
       <c r="X5" t="n">
-        <v>1686.741202187451</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y5" t="n">
-        <v>1686.741202187451</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4637,25 +4637,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>252.6519168570173</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1372.955922978507</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="C8" t="n">
-        <v>1372.955922978507</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="D8" t="n">
-        <v>1014.690224371757</v>
+        <v>1007.922735039263</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>622.1344824410189</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>211.1485776514114</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.555763042629</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y8" t="n">
-        <v>1759.555763042629</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.7460229006679</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>348.7460229006679</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622266</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3737171343197</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2570777219839</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>449.3439841395908</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934014</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035996</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892466</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452613</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N15" t="n">
         <v>1577.52840832642</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819414</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111862</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075948</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332399</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014788</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,37 +5579,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273882</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273882</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239583</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969362</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969362</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951541</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190827</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356197</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>779.614337923284</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408909</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429805</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578604</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832657</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487561</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510502</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.3858538547</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648813</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648813</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192549</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075775</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,37 +5816,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191914</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349486</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061499</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.528408326422</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565708</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3027.428036214354</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>2858.491853286447</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>2708.375213874111</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874111</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376201</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376201</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866312</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296636</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822173</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998113</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729146</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389154</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4270.24293684126</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3981.167710185458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3726.483221979572</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W22" t="n">
-        <v>3437.066051942611</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>3209.076501044593</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>3209.076501044593</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192549</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075775</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291067998</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,40 +6053,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637291</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890279</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444884</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.02845068417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.3858538547</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648813</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1329.698313085771</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
         <v>779.6143379232838</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949674</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6694,25 +6694,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6779,22 +6779,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>120.680066384834</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>454.6048385560546</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>486.4214942667319</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7016,22 +7016,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1057.955258982919</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1688.385853854706</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.396302956689</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1239.603723813159</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M39" t="n">
-        <v>923.0670414349511</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1550.665004989558</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.574735228845</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.8431516380886</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>572.9069687101817</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>422.7903292978459</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>274.8772357154528</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683283</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7405,43 +7405,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7490,22 +7490,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
@@ -7660,40 +7660,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1642.612280691864</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1353.195110654903</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360586</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.739408617140725e-11</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.750777300912887e-11</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>69.70496293143185</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>15.00954930701789</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
-        <v>119.8635921600918</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>73.85777223954082</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>48.42266963729449</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>211.1765892730637</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>183.5599762991796</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.7734165143926</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.5692538725983</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>3.5322397271932</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>40.30478226780127</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>131.695219374394</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>40.6433062151475</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>141.4594738061305</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>25.79551989096902</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>730701.5474760917</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846412</v>
@@ -26322,40 +26322,40 @@
         <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365051</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577089</v>
+        <v>944372.7777577084</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.815770605185866e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.850344853233158e-10</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925953</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670389</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
+        <v>5067.592601670474</v>
+      </c>
+      <c r="G4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="G4" t="n">
-        <v>5067.592601670387</v>
-      </c>
       <c r="H4" t="n">
-        <v>5067.59260167068</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670681</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670416</v>
       </c>
       <c r="N4" t="n">
         <v>5067.592601670438</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.59260167042</v>
       </c>
     </row>
     <row r="5">
@@ -26530,40 +26530,40 @@
         <v>413961.9203935002</v>
       </c>
       <c r="E6" t="n">
-        <v>-364488.2904467808</v>
+        <v>-364835.6697011375</v>
       </c>
       <c r="F6" t="n">
-        <v>579884.4873109281</v>
+        <v>579537.1080565712</v>
       </c>
       <c r="G6" t="n">
-        <v>579884.4873109305</v>
+        <v>579537.1080565709</v>
       </c>
       <c r="H6" t="n">
-        <v>579884.4873109274</v>
+        <v>579537.1080565713</v>
       </c>
       <c r="I6" t="n">
-        <v>579884.4873109279</v>
+        <v>579537.1080565711</v>
       </c>
       <c r="J6" t="n">
-        <v>403461.2681183326</v>
+        <v>403113.888863978</v>
       </c>
       <c r="K6" t="n">
-        <v>579884.4873109279</v>
+        <v>579537.1080565713</v>
       </c>
       <c r="L6" t="n">
-        <v>579884.4873109281</v>
+        <v>579537.1080565711</v>
       </c>
       <c r="M6" t="n">
-        <v>455675.9766028693</v>
+        <v>455328.5973485126</v>
       </c>
       <c r="N6" t="n">
-        <v>579884.4873109281</v>
+        <v>579537.1080565712</v>
       </c>
       <c r="O6" t="n">
-        <v>579884.4873109282</v>
+        <v>579537.1080565712</v>
       </c>
       <c r="P6" t="n">
-        <v>579884.4873109281</v>
+        <v>579537.1080565713</v>
       </c>
     </row>
   </sheetData>
@@ -26697,10 +26697,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26752,13 +26752,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26798,19 +26798,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245873</v>
+        <v>990.2318361245868</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.845544692770476e-12</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354.2591941216301</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>113.6430124827873</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>128.0571403890125</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.85926239547709</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>52.82081792138315</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>122.0318529865253</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.3569555942789</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.382131953751127</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>258.1506301480586</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>153.0517176144022</v>
       </c>
       <c r="Y10" t="n">
-        <v>95.13316498321416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.088265689393823e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>282.8216163968506</v>
       </c>
       <c r="N12" t="n">
-        <v>189.0011860882997</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>246.2467565146292</v>
+        <v>248.0319961154048</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007747</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>428.6149474293467</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071767</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214685</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485282</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>189.0011860883066</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437227</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214685</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473057</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862103</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.896465370497</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,19 +33031,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33262,19 +33262,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33283,7 +33283,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33499,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>153.972377511982</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515247</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>172.8142548092792</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,10 +34444,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>744.7005224868046</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839189</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396427</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748323</v>
       </c>
       <c r="N12" t="n">
-        <v>57.65947400496642</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>108.4053175402702</v>
+        <v>110.1905571410458</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774673</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>290.0605676494725</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238434</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071383</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625067</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243313</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>57.65947400497331</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992783</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071383</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683968</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674315</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764192</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561668</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36931,7 +36931,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>27.13475084531533</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716505</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38028,7 +38028,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>613.3588104034714</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3093156.543027399</v>
+        <v>3094917.073330185</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>300.1411575380077</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>242.0151172916821</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>39.25266187003844</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.79152971843303</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.657584653428553</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>14.52687838733164</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>155.6335398727364</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>104.3492192947667</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>72.65793777463499</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>171.7498680634314</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>78.9105100867805</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>135.3135037226517</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>40.96105405076426</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266593</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>104.4262124629291</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>245.8796921214435</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>112.5284434523311</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1881.118241157406</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C2" t="n">
-        <v>1512.155724216995</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D2" t="n">
-        <v>1153.890025610244</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>768.101773012</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>357.1158682223924</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>1592.680346282665</v>
       </c>
       <c r="Y2" t="n">
-        <v>1881.118241157406</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240413</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261309</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>666.7233986322594</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4567,52 +4567,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2695.474763085466</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2519.297275399636</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2300.662608371699</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2300.662608371699</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2300.662608371699</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1947.893953101585</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1574.428194840505</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4658,7 +4658,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1366.188433646014</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1366.188433646014</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1007.922735039263</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>622.1344824410189</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>211.1485776514114</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2591.745839205326</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907093</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="X8" t="n">
-        <v>1366.188433646014</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y8" t="n">
-        <v>1366.188433646014</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
         <v>1791.679670014717</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,31 +5035,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452619</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452619</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5415,34 +5415,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5503,31 +5503,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5594,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,16 +5749,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5767,13 +5767,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5843,10 +5843,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6077,16 +6077,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6308,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6366,16 +6366,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6794,10 +6794,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,25 +7402,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355936</v>
@@ -7502,7 +7502,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7739,7 +7739,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>350.4438349360596</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>69.70496293143185</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>13.30196929556061</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>211.1765892730637</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>40.6433062151475</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>32.89260457060011</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365057</v>
@@ -26355,7 +26355,7 @@
         <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577084</v>
+        <v>944372.7777577089</v>
       </c>
       <c r="F3" t="n">
-        <v>2.815770605185866e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1.767800767993322e-10</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670474</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
         <v>5067.592601670437</v>
@@ -26450,16 +26450,16 @@
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.59260167042</v>
+        <v>5067.592601670437</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-176005.9588210443</v>
+        <v>-176005.9588210441</v>
       </c>
       <c r="C6" t="n">
-        <v>413961.9203935002</v>
+        <v>413961.9203935001</v>
       </c>
       <c r="D6" t="n">
-        <v>413961.9203935002</v>
+        <v>413961.9203935004</v>
       </c>
       <c r="E6" t="n">
-        <v>-364835.6697011375</v>
+        <v>-364523.0283722167</v>
       </c>
       <c r="F6" t="n">
-        <v>579537.1080565712</v>
+        <v>579849.7493854923</v>
       </c>
       <c r="G6" t="n">
-        <v>579537.1080565709</v>
+        <v>579849.7493854925</v>
       </c>
       <c r="H6" t="n">
-        <v>579537.1080565713</v>
+        <v>579849.7493854925</v>
       </c>
       <c r="I6" t="n">
-        <v>579537.1080565711</v>
+        <v>579849.7493854923</v>
       </c>
       <c r="J6" t="n">
-        <v>403113.888863978</v>
+        <v>403426.5301928995</v>
       </c>
       <c r="K6" t="n">
-        <v>579537.1080565713</v>
+        <v>579849.7493854925</v>
       </c>
       <c r="L6" t="n">
-        <v>579537.1080565711</v>
+        <v>579849.7493854925</v>
       </c>
       <c r="M6" t="n">
-        <v>455328.5973485126</v>
+        <v>455641.2386774338</v>
       </c>
       <c r="N6" t="n">
-        <v>579537.1080565712</v>
+        <v>579849.7493854925</v>
       </c>
       <c r="O6" t="n">
-        <v>579537.1080565712</v>
+        <v>579849.7493854925</v>
       </c>
       <c r="P6" t="n">
-        <v>579537.1080565713</v>
+        <v>579849.7493854925</v>
       </c>
     </row>
   </sheetData>
@@ -26697,10 +26697,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245868</v>
+        <v>990.2318361245873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>113.6430124827873</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>127.7159833867869</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>128.0571403890125</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>157.7931236336618</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>52.82081792138315</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>152.7829238717193</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>258.1506301480586</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>70.06649351420486</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>153.0517176144022</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>46.83478528866343</v>
       </c>
     </row>
     <row r="11">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.088265689393823e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968506</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>248.0319961154048</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>232.75998908852</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32797,7 +32797,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32809,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33514,13 +33514,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>467.1465236515247</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>401.1632560839198</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396427</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748323</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1905571410458</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>98.78558167418976</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36457,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>328.5921438716505</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
